--- a/data/trans_bre/P23_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P23_R2-Habitat-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-24.93151891047856</v>
+        <v>-25.08925241186417</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-18.79564847590992</v>
+        <v>-18.97397545951805</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-17.3274101930561</v>
+        <v>-16.68287796765876</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-14.87661514365908</v>
+        <v>-14.45104735971289</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.5477781258831373</v>
+        <v>-0.5417553594330707</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.4829867212079694</v>
+        <v>-0.4786464046331845</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.4337551969540596</v>
+        <v>-0.4183326907233422</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.4783025563115008</v>
+        <v>-0.4693082242123148</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-15.18736503507635</v>
+        <v>-15.56341535253022</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-8.795210859911649</v>
+        <v>-9.055416398658883</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-7.115904417416107</v>
+        <v>-6.530068938398865</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-5.768292984107728</v>
+        <v>-5.702192274534704</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.3795423195894706</v>
+        <v>-0.3731076269973921</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.2610251475204831</v>
+        <v>-0.2607498710042177</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.201898734821152</v>
+        <v>-0.1931756889386007</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.2186794369843416</v>
+        <v>-0.220492348070006</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-21.33941616929365</v>
+        <v>-21.40043396200042</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-13.74443166705795</v>
+        <v>-14.31630367818652</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-10.73558855271785</v>
+        <v>-10.99243233368091</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-9.344988704707196</v>
+        <v>-9.971917379489732</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5095281131282872</v>
+        <v>-0.5023184671876953</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3466216486303501</v>
+        <v>-0.3561299776875052</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3092651657259669</v>
+        <v>-0.3154099532051257</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3557721740511346</v>
+        <v>-0.3666311827324609</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-13.30740732835763</v>
+        <v>-12.84161158136259</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-5.379081993527269</v>
+        <v>-5.622102357396106</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-3.019239070656227</v>
+        <v>-3.128864767523609</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-2.212031727014804</v>
+        <v>-2.237598550725963</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.3490832424011348</v>
+        <v>-0.3356794806278918</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.1550007475016888</v>
+        <v>-0.1583711430533288</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.09643430937285445</v>
+        <v>-0.09729330368969689</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.09809870398869837</v>
+        <v>-0.0981810742212309</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-11.95717952498368</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-5.31544517343126</v>
+        <v>-5.315445173431257</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.3403770654977553</v>
@@ -849,7 +849,7 @@
         <v>-0.2935750379755388</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.1988756209423015</v>
+        <v>-0.1988756209423014</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-17.2989544584905</v>
+        <v>-17.89610223045003</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-13.65293368364705</v>
+        <v>-13.57139068348634</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-16.67940507657764</v>
+        <v>-17.02873078071847</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-10.3258704459342</v>
+        <v>-10.32469226506134</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.4532693170220949</v>
+        <v>-0.4530267753208013</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3422817783108523</v>
+        <v>-0.3462305465383271</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3858539118607672</v>
+        <v>-0.388888167587369</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.3433339756120933</v>
+        <v>-0.3489681491857492</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-6.927011957342683</v>
+        <v>-7.757373031267041</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-3.651767232830758</v>
+        <v>-3.562844979155102</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-6.747481238270088</v>
+        <v>-7.10927548540401</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.6690847168914736</v>
+        <v>-1.232103109521322</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.2089222763723062</v>
+        <v>-0.2298437248086519</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.1028263298781134</v>
+        <v>-0.1046332991166246</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.179220475344465</v>
+        <v>-0.1861124596549677</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.02801395616106672</v>
+        <v>-0.05071956657899515</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-15.98586605739961</v>
+        <v>-16.12287051347554</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-12.32313115838475</v>
+        <v>-13.08374035032219</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-9.521304937359741</v>
+        <v>-9.198879499957092</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-9.30069245019817</v>
+        <v>-9.452639005096263</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3847982612260931</v>
+        <v>-0.3874606414957954</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3251998682322305</v>
+        <v>-0.3401576525492679</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2955221907952816</v>
+        <v>-0.2866417038599948</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3524291305969584</v>
+        <v>-0.3484265560756832</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-7.66317174194487</v>
+        <v>-7.669136439154592</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-4.033523751042711</v>
+        <v>-4.061439532677671</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-1.401829794467707</v>
+        <v>-1.365396959560251</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-2.14890061220948</v>
+        <v>-2.240495655226724</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.2040661906024078</v>
+        <v>-0.2052250195013256</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.1166037924849456</v>
+        <v>-0.1205424734667285</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.04762900781763913</v>
+        <v>-0.04837022218501425</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.09837557513440134</v>
+        <v>-0.09952905166402287</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-8.618435409294895</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-6.596757326203623</v>
+        <v>-6.596757326203625</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.3837713167823272</v>
@@ -1049,7 +1049,7 @@
         <v>-0.2485874753544713</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.258191109405278</v>
+        <v>-0.2581911094052781</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-17.58010048208848</v>
+        <v>-17.38880271675206</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-12.11473938998892</v>
+        <v>-12.04317998325805</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-11.03498612968204</v>
+        <v>-10.92831266839992</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-8.762700066597613</v>
+        <v>-8.797270953072958</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.4286140395398305</v>
+        <v>-0.4276202864336769</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.3200440593906588</v>
+        <v>-0.3182573251896404</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.30697451279171</v>
+        <v>-0.3031018248083613</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.3248673048527378</v>
+        <v>-0.3251631560685456</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-12.93842911611875</v>
+        <v>-12.85996769731355</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-7.58728030781536</v>
+        <v>-7.430402456661368</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-6.245283323771165</v>
+        <v>-6.412017524334619</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-4.675301983172993</v>
+        <v>-4.607598265242213</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.3372361833797471</v>
+        <v>-0.3327638103518208</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.210808310926945</v>
+        <v>-0.2106655424536729</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.1849994559241177</v>
+        <v>-0.1905491815717912</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.1925028855782184</v>
+        <v>-0.1870672328664824</v>
       </c>
     </row>
     <row r="19">
